--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
   <si>
     <t>Quy trình</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Tô màu item</t>
+  </si>
+  <si>
+    <t>Chậm</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Huy chậm</t>
   </si>
 </sst>
 </file>
@@ -621,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +640,7 @@
     <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,7 +1199,10 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,7 +1420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1455,7 +1468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -1469,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1483,7 +1496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -1497,7 +1510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1538,8 +1551,11 @@
       <c r="E57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -1552,8 +1568,11 @@
       <c r="E58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1566,8 +1585,11 @@
       <c r="E59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -1600,10 +1622,13 @@
         <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -1614,21 +1639,27 @@
         <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>43</v>
+      <c r="D64" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,11 +1669,11 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>42</v>
+      <c r="D65" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="75">
   <si>
     <t>Quy trình</t>
   </si>
@@ -234,13 +234,13 @@
     <t>Tô màu item</t>
   </si>
   <si>
-    <t>Chậm</t>
-  </si>
-  <si>
     <t>Check</t>
   </si>
   <si>
     <t>Huy chậm</t>
+  </si>
+  <si>
+    <t>Mạnh làm thay</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
     <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,13 @@
         <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,7 +1485,13 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,7 +1505,13 @@
         <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1507,7 +1525,13 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1521,7 +1545,13 @@
         <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,7 +1565,13 @@
         <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,10 +1585,13 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,10 +1605,13 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,10 +1625,13 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,7 +1645,10 @@
         <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,10 +1670,7 @@
         <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,10 +1684,7 @@
         <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,10 +1698,7 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,7 +1712,7 @@
         <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,7 +1726,7 @@
         <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -327,6 +327,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,6 +1975,9 @@
       <c r="F81" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:F66">
